--- a/Colloquium/ColloquiumSchedule22.xlsx
+++ b/Colloquium/ColloquiumSchedule22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/localduality/Documents/GitHub/website/Colloquium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF1E66-673C-CB4C-B4F1-86AD430BC11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFED5ADD-131A-2744-B5AC-5B223743539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="960" windowWidth="23160" windowHeight="15680" xr2:uid="{E5569ACD-0CBE-7A4E-9856-0E3E9EE764AA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Gretchen Matthews (DIST WOMEN IN MATH)</t>
+  </si>
+  <si>
+    <t>Tefjol Pllaha</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="B3:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,8 +486,11 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>44813</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">

--- a/Colloquium/ColloquiumSchedule22.xlsx
+++ b/Colloquium/ColloquiumSchedule22.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>Tefjol Pllaha</t>
+  </si>
+  <si>
+    <t>Luis Núñez-Betancourt</t>
   </si>
   <si>
     <t>Martha Civil</t>
@@ -78,7 +81,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,7 +90,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -115,6 +118,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -126,42 +135,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -175,26 +184,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -203,7 +212,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -220,49 +229,49 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -282,6 +291,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa9cd90"/>
       <rgbColor rgb="ffbdd6ee"/>
@@ -486,17 +496,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -524,10 +534,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -775,12 +785,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1067,7 +1077,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1095,10 +1105,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1452,10 +1462,12 @@
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="7">
+      <c r="B11" s="11">
         <v>44841</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" t="s" s="10">
+        <v>3</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
@@ -1492,10 +1504,10 @@
         <v>44869</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -1523,7 +1535,7 @@
         <v>44891</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1534,10 +1546,10 @@
         <v>44897</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1560,7 +1572,7 @@
     <row r="22" ht="21" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" t="s" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
@@ -1642,7 +1654,7 @@
         <v>44637</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1653,10 +1665,10 @@
         <v>44644</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2"/>
     </row>

--- a/Colloquium/ColloquiumSchedule22.xlsx
+++ b/Colloquium/ColloquiumSchedule22.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/localduality/Documents/GitHub/website/Colloquium/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B067491-B8A1-7A42-8A91-51774098FCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -51,27 +60,32 @@
   <si>
     <t>Chris, David, Allan</t>
   </si>
+  <si>
+    <t>Mikil</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Eric Eager</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Armin Schikorra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -80,8 +94,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +142,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="15"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -218,62 +244,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -282,29 +279,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa9cd90"/>
-      <rgbColor rgb="ffbdd6ee"/>
-      <rgbColor rgb="ffadcdea"/>
-      <rgbColor rgb="ffc00000"/>
-      <rgbColor rgb="ffc5deb5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA9CD90"/>
+      <rgbColor rgb="FFBDD6EE"/>
+      <rgbColor rgb="FFADCDEA"/>
+      <rgbColor rgb="FFC00000"/>
+      <rgbColor rgb="FFC5DEB5"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -506,7 +559,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -525,7 +578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,7 +608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -581,7 +634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -607,7 +660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -633,7 +686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,9 +829,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -795,7 +854,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -814,7 +873,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +899,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,9 +1120,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1077,7 +1142,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1096,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,391 +1412,416 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.3516" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
+    <row r="1" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="15.35" customHeight="1">
+    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="21" customHeight="1">
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="15.35" customHeight="1">
+    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7">
+    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
         <v>44799</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9">
+    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7">
         <v>44806</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9">
+    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7">
         <v>44813</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7">
+    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
         <v>44820</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7">
+    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5">
         <v>44827</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7">
+    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5">
         <v>44834</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11">
+    <row r="11" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9">
         <v>44841</v>
       </c>
-      <c r="C11" t="s" s="10">
+      <c r="C11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7">
+    <row r="12" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="17">
         <v>44848</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7">
+    <row r="13" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="17">
         <v>44855</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7">
+    <row r="14" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
         <v>44862</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11">
+    <row r="15" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="9">
         <v>44869</v>
       </c>
-      <c r="C15" t="s" s="10">
+      <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s" s="12">
+      <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7">
+    <row r="16" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5">
         <v>44876</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7">
+    <row r="17" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5">
         <v>44883</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13">
+    <row r="18" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11">
         <v>44891</v>
       </c>
-      <c r="C18" t="s" s="10">
+      <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9">
+    <row r="19" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="7">
         <v>44897</v>
       </c>
-      <c r="C19" t="s" s="10">
+      <c r="C19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="14">
+    <row r="20" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="12">
         <v>44904</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" ht="15.35" customHeight="1">
+    <row r="21" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" ht="21" customHeight="1">
+    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" ht="15.35" customHeight="1">
+    <row r="23" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" ht="15.35" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="14">
+    <row r="24" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="12">
         <v>44588</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" ht="15.35" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="14">
+    <row r="25" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="12">
         <v>44595</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" ht="15.35" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="14">
+    <row r="26" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="12">
         <v>44602</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" ht="15.35" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="14">
+    <row r="27" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="12">
         <v>44609</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" ht="15.35" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="14">
+    <row r="28" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="12">
         <v>44616</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" ht="15.35" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="14">
+    <row r="29" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="12">
         <v>44623</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" ht="15.35" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="14">
+    <row r="30" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="12">
         <v>44630</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" ht="15.35" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="13">
+    <row r="31" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="11">
         <v>44637</v>
       </c>
-      <c r="C31" t="s" s="10">
+      <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" ht="15.35" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9">
+    <row r="32" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="7">
         <v>44644</v>
       </c>
-      <c r="C32" t="s" s="10">
+      <c r="C32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="14">
+    <row r="33" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="12">
         <v>44651</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" ht="15.35" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="14">
+    <row r="34" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="12">
         <v>44658</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" ht="15.35" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="14">
+    <row r="35" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="12">
         <v>44665</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" ht="15.35" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="14">
+    <row r="36" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="12">
         <v>44672</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" ht="15.35" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="14">
+    <row r="37" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="12">
         <v>44679</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" ht="15.35" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="14">
+    <row r="38" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="12">
         <v>44686</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" ht="15.35" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="16">
+    <row r="39" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="14">
         <v>44693</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
@@ -1741,7 +1831,7 @@
     <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Colloquium/ColloquiumSchedule22.xlsx
+++ b/Colloquium/ColloquiumSchedule22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/localduality/Documents/GitHub/website/Colloquium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B067491-B8A1-7A42-8A91-51774098FCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1970D83F-2637-6143-AE6D-B9C90D7B06F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,6 +93,7 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -262,15 +263,15 @@
     <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,7 +1435,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1462,10 +1463,10 @@
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -1549,20 +1550,20 @@
     </row>
     <row r="12" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>44848</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>44855</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1646,7 +1647,7 @@
       <c r="B20" s="12">
         <v>44904</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2"/>
@@ -1661,10 +1662,10 @@
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>

--- a/Colloquium/ColloquiumSchedule22.xlsx
+++ b/Colloquium/ColloquiumSchedule22.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/localduality/Documents/GitHub/website/Colloquium/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1970D83F-2637-6143-AE6D-B9C90D7B06F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -34,16 +25,34 @@
     <t>Luis Núñez-Betancourt</t>
   </si>
   <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Eric Eager</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Armin Schikorra</t>
+  </si>
+  <si>
+    <t>Mikil</t>
+  </si>
+  <si>
     <t>Martha Civil</t>
   </si>
   <si>
     <t>Amy</t>
   </si>
   <si>
+    <t>xxx</t>
+  </si>
+  <si>
     <t>Thanksgiving</t>
   </si>
   <si>
-    <t>Gretchen Matthews (DIST WOMEN IN MATH)</t>
+    <t>Gretchen Matthews (DWM)</t>
   </si>
   <si>
     <t>Alex, Christine</t>
@@ -61,31 +70,29 @@
     <t>Chris, David, Allan</t>
   </si>
   <si>
-    <t>Mikil</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>Eric Eager</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Armin Schikorra</t>
+    <t>Claudia Polini (DWM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -93,13 +100,6 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -147,8 +147,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -245,32 +245,64 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -280,85 +312,30 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFA9CD90"/>
-      <rgbColor rgb="FFBDD6EE"/>
-      <rgbColor rgb="FFADCDEA"/>
-      <rgbColor rgb="FFC00000"/>
-      <rgbColor rgb="FFC5DEB5"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa9cd90"/>
+      <rgbColor rgb="ffbdd6ee"/>
+      <rgbColor rgb="ffadcdea"/>
+      <rgbColor rgb="ffbdd6ee"/>
+      <rgbColor rgb="ffc00000"/>
+      <rgbColor rgb="ffc5deb5"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -560,7 +537,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -579,7 +556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,7 +690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -739,7 +716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,7 +742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -817,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -830,15 +807,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -855,7 +826,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -874,7 +845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +1027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +1053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,15 +1092,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1143,7 +1108,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1162,7 +1127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1400,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1413,416 +1378,411 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.25" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="21" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
+    <row r="5" ht="15.25" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7">
         <v>44799</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7">
+    <row r="6" ht="15.25" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9">
         <v>44806</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s" s="10">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7">
+    <row r="7" ht="15.25" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9">
         <v>44813</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s" s="10">
         <v>2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
+    <row r="8" ht="15.25" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7">
         <v>44820</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5">
+    <row r="9" ht="15.25" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7">
         <v>44827</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5">
+    <row r="10" ht="15.25" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7">
         <v>44834</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9">
+    <row r="11" ht="15.25" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11">
         <v>44841</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
+      <c r="D11" t="s" s="12">
+        <v>4</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="15">
+    <row r="12" ht="15.25" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="13">
         <v>44848</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>17</v>
+      <c r="C12" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>6</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="15">
+    <row r="13" ht="15.25" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="13">
         <v>44855</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
+      <c r="C13" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>8</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5">
+    <row r="14" ht="15.25" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
         <v>44862</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="9">
+    <row r="15" ht="15.25" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="11">
         <v>44869</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>5</v>
+      <c r="C15" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>10</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5">
+    <row r="16" ht="15.25" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
         <v>44876</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
+      <c r="C16" t="s" s="10">
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5">
+    <row r="17" ht="15.25" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7">
         <v>44883</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
+      <c r="C17" t="s" s="10">
+        <v>11</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11">
+    <row r="18" ht="15.25" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="14">
         <v>44891</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
+      <c r="C18" t="s" s="10">
+        <v>12</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7">
+    <row r="19" ht="15.25" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9">
         <v>44897</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>8</v>
+      <c r="C19" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>14</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="12">
+    <row r="20" ht="15.25" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="15">
         <v>44904</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>15</v>
+      <c r="C20" t="s" s="10">
+        <v>11</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.25" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="21" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="19"/>
+      <c r="B22" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15.25" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="12">
+    <row r="24" ht="15.25" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="15">
         <v>44588</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="12">
+    <row r="25" ht="15.25" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="15">
         <v>44595</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="12">
+    <row r="26" ht="15.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="15">
         <v>44602</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="12">
+    <row r="27" ht="15.25" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="15">
         <v>44609</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="12">
+    <row r="28" ht="15.25" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="15">
         <v>44616</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="12">
+    <row r="29" ht="15.25" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="15">
         <v>44623</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="12">
+    <row r="30" ht="15.25" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="15">
         <v>44630</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="11">
+    <row r="31" ht="15.25" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="14">
         <v>44637</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>10</v>
+      <c r="C31" t="s" s="10">
+        <v>16</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7">
+    <row r="32" ht="15.25" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9">
         <v>44644</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>12</v>
+      <c r="C32" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s" s="12">
+        <v>18</v>
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="12">
+    <row r="33" ht="15.25" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="15">
         <v>44651</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="12">
+    <row r="34" ht="15.25" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="15">
         <v>44658</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="12">
+    <row r="35" ht="15.25" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="15">
         <v>44665</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="12">
+    <row r="36" ht="15.25" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="15">
         <v>44672</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="12">
+    <row r="37" ht="15.25" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="15">
         <v>44679</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="12">
+    <row r="38" ht="15.25" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="11">
         <v>44686</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="2"/>
+      <c r="C38" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s" s="12">
+        <v>4</v>
+      </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="14">
+    <row r="39" ht="15.25" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="17">
         <v>44693</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
@@ -1832,7 +1792,7 @@
     <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
